--- a/DATA_DOWNLOAD/TABLES/Cities_by_Region.xlsx
+++ b/DATA_DOWNLOAD/TABLES/Cities_by_Region.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -80,16 +80,67 @@
     <t xml:space="preserve">Akron</t>
   </si>
   <si>
+    <t xml:space="preserve">Grand Rapids, MI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Rapids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Co. Gary, IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flint, MI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erie, PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East St. Louis, IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Louis-ESL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dayton, OH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dayton</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fort Wayne, IN</t>
   </si>
   <si>
     <t xml:space="preserve">Fort Wayne</t>
   </si>
   <si>
-    <t xml:space="preserve">Grand Rapids, MI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grand Rapids</t>
+    <t xml:space="preserve">Kalamazoo, MI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalamazoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Youngstown, OH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Youngstown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battle Creek, MI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battle Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madison, WI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madison</t>
   </si>
   <si>
     <t xml:space="preserve">South Bend, IN</t>
@@ -98,31 +149,43 @@
     <t xml:space="preserve">South Bend</t>
   </si>
   <si>
-    <t xml:space="preserve">Lake Co. Gary, IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flint, MI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dayton, OH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dayton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erie, PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East St. Louis, IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Louis-ESL</t>
+    <t xml:space="preserve">Johnstown, PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnstown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pontiac, MI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Racine, WI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Racine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Joseph, MO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Joseph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joliet, IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joliet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rockford, IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rockford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saginaw, MI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saginaw</t>
   </si>
   <si>
     <t xml:space="preserve">Wichita, KS</t>
@@ -131,28 +194,70 @@
     <t xml:space="preserve">Wichita</t>
   </si>
   <si>
-    <t xml:space="preserve">Kalamazoo, MI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalamazoo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Youngstown, OH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Youngstown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Battle Creek, MI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Battle Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madison, WI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madison</t>
+    <t xml:space="preserve">Altoona, PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altoona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canton, OH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Springfield, OH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Castle, PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Castle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muncie, IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muncie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evansville, IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evansville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oshkosh, WI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oshkosh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terre Haute, IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terre Haute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheeling, WV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamilton, OH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamilton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenosha, WI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenosha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Springfield, MO</t>
   </si>
   <si>
     <t xml:space="preserve">Decatur, IL</t>
@@ -161,138 +266,33 @@
     <t xml:space="preserve">Decatur</t>
   </si>
   <si>
-    <t xml:space="preserve">Johnstown, PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnstown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pontiac, MI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Racine, WI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Racine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Joseph, MO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Joseph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joliet, IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joliet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rockford, IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rockford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saginaw, MI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saginaw</t>
+    <t xml:space="preserve">Muskegon, MI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muskegon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portsmouth, OH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portsmouth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aurora, IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aurora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warren, OH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warren</t>
   </si>
   <si>
     <t xml:space="preserve">Springfield, IL</t>
   </si>
   <si>
-    <t xml:space="preserve">Altoona, PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Altoona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canton, OH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Springfield, OH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Castle, PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Castle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muncie, IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muncie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evansville, IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evansville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oshkosh, WI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oshkosh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terre Haute, IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terre Haute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wheeling, WV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wheeling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamilton, OH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamilton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenosha, WI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenosha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Springfield, MO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muskegon, MI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muskegon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portsmouth, OH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portsmouth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aurora, IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aurora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warren, OH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warren</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lorain, OH</t>
   </si>
   <si>
@@ -338,15 +338,15 @@
     <t xml:space="preserve">Rochester, NY</t>
   </si>
   <si>
+    <t xml:space="preserve">Hudson Co., NJ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baltimore, MD</t>
   </si>
   <si>
     <t xml:space="preserve">Baltimore</t>
   </si>
   <si>
-    <t xml:space="preserve">Hudson Co., NJ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manhattan, NY</t>
   </si>
   <si>
@@ -449,18 +449,18 @@
     <t xml:space="preserve">Arlington, MA</t>
   </si>
   <si>
+    <t xml:space="preserve">Belmont, MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambridge, MA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brockton, MA</t>
   </si>
   <si>
     <t xml:space="preserve">Brockton</t>
   </si>
   <si>
-    <t xml:space="preserve">Belmont, MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambridge, MA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Poughkeepsie, NY</t>
   </si>
   <si>
@@ -560,60 +560,60 @@
     <t xml:space="preserve">Charleston</t>
   </si>
   <si>
+    <t xml:space="preserve">Macon, GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huntington, WV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huntington</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlotte, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlotte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lynchburg, VA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lynchburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chattanooga, TN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chattanooga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roanoke, VA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roanoke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Augusta, GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Augusta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columbia, SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columbia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mobile, AL</t>
   </si>
   <si>
     <t xml:space="preserve">Mobile</t>
   </si>
   <si>
-    <t xml:space="preserve">Macon, GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huntington, WV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huntington</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charlotte, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charlotte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lynchburg, VA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lynchburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roanoke, VA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roanoke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chattanooga, TN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chattanooga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Augusta, GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Augusta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Columbia, SC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Columbia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Columbus, GA</t>
   </si>
   <si>
@@ -665,16 +665,16 @@
     <t xml:space="preserve">Portland</t>
   </si>
   <si>
+    <t xml:space="preserve">Sacramento, CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sacramento</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spokane, WA</t>
   </si>
   <si>
     <t xml:space="preserve">Spokane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sacramento, CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sacramento</t>
   </si>
   <si>
     <t xml:space="preserve">Tacoma, WA</t>
@@ -704,7 +704,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -1023,10 +1023,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -1156,32 +1156,32 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
       <c r="C13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
       <c r="C14" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
@@ -1192,7 +1192,7 @@
         <v>29</v>
       </c>
       <c r="C15" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
@@ -1203,7 +1203,7 @@
         <v>31</v>
       </c>
       <c r="C16" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
@@ -1214,7 +1214,7 @@
         <v>33</v>
       </c>
       <c r="C17" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18">
@@ -1225,7 +1225,7 @@
         <v>35</v>
       </c>
       <c r="C18" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19">
@@ -1236,7 +1236,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20">
@@ -1247,7 +1247,7 @@
         <v>39</v>
       </c>
       <c r="C20" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
@@ -1258,7 +1258,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
@@ -1280,7 +1280,7 @@
         <v>45</v>
       </c>
       <c r="C23" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24">
@@ -1288,32 +1288,32 @@
         <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C24" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
       <c r="C25" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
       <c r="C26" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -1324,7 +1324,7 @@
         <v>52</v>
       </c>
       <c r="C27" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -1335,7 +1335,7 @@
         <v>54</v>
       </c>
       <c r="C28" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         <v>56</v>
       </c>
       <c r="C29" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
@@ -1368,7 +1368,7 @@
         <v>60</v>
       </c>
       <c r="C31" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
@@ -1376,21 +1376,21 @@
         <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C32" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
         <v>63</v>
       </c>
       <c r="C33" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
@@ -1401,7 +1401,7 @@
         <v>65</v>
       </c>
       <c r="C34" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
@@ -1409,40 +1409,40 @@
         <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C35" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C36" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C37" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C38" t="n">
         <v>24</v>
@@ -1450,10 +1450,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C39" t="n">
         <v>24</v>
@@ -1461,29 +1461,29 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C40" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C41" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s">
         <v>80</v>
@@ -1500,7 +1500,7 @@
         <v>82</v>
       </c>
       <c r="C43" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
@@ -1508,18 +1508,18 @@
         <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C44" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C45" t="n">
         <v>21</v>
@@ -1527,21 +1527,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C46" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C47" t="n">
         <v>20</v>
@@ -1549,13 +1549,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B48" t="s">
         <v>91</v>
       </c>
       <c r="C48" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
@@ -1587,10 +1587,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -1657,7 +1657,7 @@
         <v>97</v>
       </c>
       <c r="C6" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -1668,7 +1668,7 @@
         <v>103</v>
       </c>
       <c r="C7" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -1709,7 +1709,7 @@
         <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C11" t="n">
         <v>58</v>
@@ -1717,13 +1717,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
         <v>109</v>
       </c>
-      <c r="B12" t="s">
-        <v>97</v>
-      </c>
       <c r="C12" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
@@ -1951,7 +1951,7 @@
         <v>144</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="C33" t="n">
         <v>16</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B34" t="s">
         <v>117</v>
@@ -1970,13 +1970,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" t="s">
         <v>147</v>
       </c>
-      <c r="B35" t="s">
-        <v>117</v>
-      </c>
       <c r="C35" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -2107,10 +2107,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -2243,7 +2243,7 @@
         <v>182</v>
       </c>
       <c r="C12" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
@@ -2254,7 +2254,7 @@
         <v>184</v>
       </c>
       <c r="C13" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
@@ -2265,7 +2265,7 @@
         <v>186</v>
       </c>
       <c r="C14" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -2276,7 +2276,7 @@
         <v>188</v>
       </c>
       <c r="C15" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -2287,7 +2287,7 @@
         <v>190</v>
       </c>
       <c r="C16" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -2298,7 +2298,7 @@
         <v>192</v>
       </c>
       <c r="C17" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -2309,7 +2309,7 @@
         <v>194</v>
       </c>
       <c r="C18" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -2320,7 +2320,7 @@
         <v>196</v>
       </c>
       <c r="C19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
@@ -2331,7 +2331,7 @@
         <v>198</v>
       </c>
       <c r="C20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -2407,10 +2407,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -2444,7 +2444,7 @@
         <v>213</v>
       </c>
       <c r="C3" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4">
@@ -2466,7 +2466,7 @@
         <v>217</v>
       </c>
       <c r="C5" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -2477,7 +2477,7 @@
         <v>219</v>
       </c>
       <c r="C6" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -2521,7 +2521,7 @@
         <v>227</v>
       </c>
       <c r="C10" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_DOWNLOAD/TABLES/Cities_by_Region.xlsx
+++ b/DATA_DOWNLOAD/TABLES/Cities_by_Region.xlsx
@@ -50,49 +50,286 @@
     <t xml:space="preserve">Greater Kansas City</t>
   </si>
   <si>
+    <t xml:space="preserve">Milwaukee Co., WI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milwaukee Co.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toledo, OH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toledo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indianapolis, IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indianapolis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akron, OH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Rapids, MI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Rapids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Co. Gary, IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flint, MI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East St. Louis, IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Louis-ESL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dayton, OH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dayton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fort Wayne, IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fort Wayne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalamazoo, MI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalamazoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Youngstown, OH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Youngstown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battle Creek, MI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battle Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madison, WI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Bend, IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Bend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pontiac, MI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Racine, WI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Racine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Joseph, MO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Joseph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joliet, IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joliet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rockford, IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rockford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saginaw, MI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saginaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wichita, KS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wichita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canton, OH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Springfield, OH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muncie, IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muncie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evansville, IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evansville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oshkosh, WI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oshkosh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terre Haute, IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terre Haute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheeling, WV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamilton, OH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamilton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenosha, WI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenosha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Springfield, MO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decatur, IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decatur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muskegon, MI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muskegon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portsmouth, OH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portsmouth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aurora, IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aurora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warren, OH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Springfield, IL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorain, OH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bay City, MI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bay City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queens, NY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NYC Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bergen Co., NJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essex Co., NJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union Co., NJ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pittsburgh, PA</t>
   </si>
   <si>
     <t xml:space="preserve">Pittsburgh</t>
   </si>
   <si>
-    <t xml:space="preserve">Milwaukee Co., WI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milwaukee Co.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toledo, OH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toledo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indianapolis, IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indianapolis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akron, OH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grand Rapids, MI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grand Rapids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lake Co. Gary, IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flint, MI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flint</t>
+    <t xml:space="preserve">Lower Westchester Co., NY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philadelphia, PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philly-Camden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brooklyn, NY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staten Island, NY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rochester, NY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hudson Co., NJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baltimore, MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baltimore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manhattan, NY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syracuse, NY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syracuse</t>
   </si>
   <si>
     <t xml:space="preserve">Erie, PA</t>
@@ -101,52 +338,37 @@
     <t xml:space="preserve">Erie</t>
   </si>
   <si>
-    <t xml:space="preserve">East St. Louis, IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Louis-ESL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dayton, OH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dayton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fort Wayne, IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fort Wayne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalamazoo, MI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalamazoo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Youngstown, OH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Youngstown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Battle Creek, MI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Battle Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madison, WI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Bend, IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Bend</t>
+    <t xml:space="preserve">New Haven, CT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Haven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bronx, NY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boston, MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greater Boston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camden, NJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schenectady, NY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albany-Troy-Schenectady</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troy, NY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trenton, NJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trenton</t>
   </si>
   <si>
     <t xml:space="preserve">Johnstown, PA</t>
@@ -155,43 +377,10 @@
     <t xml:space="preserve">Johnstown</t>
   </si>
   <si>
-    <t xml:space="preserve">Pontiac, MI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Racine, WI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Racine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Joseph, MO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Joseph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joliet, IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joliet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rockford, IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rockford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saginaw, MI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saginaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wichita, KS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wichita</t>
+    <t xml:space="preserve">Buffalo, NY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buffalo-Niagara Falls</t>
   </si>
   <si>
     <t xml:space="preserve">Altoona, PA</t>
@@ -200,232 +389,43 @@
     <t xml:space="preserve">Altoona</t>
   </si>
   <si>
-    <t xml:space="preserve">Canton, OH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Springfield, OH</t>
+    <t xml:space="preserve">Albany, NY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binghamton-Johnson City, NY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binghamton-Johnson City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlantic City, NJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlantic City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hartford, CT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greater Hartford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stamford, Darien, and New Canaan, CT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stamford, Darien, and New Canaan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchester, NH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchester</t>
   </si>
   <si>
     <t xml:space="preserve">New Castle, PA</t>
   </si>
   <si>
     <t xml:space="preserve">New Castle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muncie, IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muncie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evansville, IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evansville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oshkosh, WI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oshkosh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terre Haute, IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terre Haute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wheeling, WV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wheeling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamilton, OH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamilton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenosha, WI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenosha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Springfield, MO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decatur, IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decatur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muskegon, MI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muskegon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portsmouth, OH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portsmouth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aurora, IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aurora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warren, OH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Springfield, IL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lorain, OH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lorain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bay City, MI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bay City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queens, NY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NYC Region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bergen Co., NJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essex Co., NJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Union Co., NJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Westchester Co., NY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philadelphia, PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philly-Camden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brooklyn, NY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Staten Island, NY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rochester, NY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hudson Co., NJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baltimore, MD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baltimore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manhattan, NY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syracuse, NY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syracuse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Haven, CT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Haven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bronx, NY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boston, MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greater Boston</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camden, NJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schenectady, NY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albany-Troy-Schenectady</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Troy, NY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trenton, NJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trenton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buffalo, NY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buffalo-Niagara Falls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albany, NY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binghamton-Johnson City, NY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binghamton-Johnson City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlantic City, NJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlantic City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hartford, CT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greater Hartford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stamford, Darien, and New Canaan, CT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stamford, Darien, and New Canaan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester, NH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester</t>
   </si>
   <si>
     <t xml:space="preserve">Haverhill, MA</t>
@@ -1093,7 +1093,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
@@ -1104,7 +1104,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>112</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -1115,7 +1115,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
@@ -1126,7 +1126,7 @@
         <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -1137,7 +1137,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1145,21 +1145,21 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
       <c r="C12" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
@@ -1170,7 +1170,7 @@
         <v>25</v>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
@@ -1181,7 +1181,7 @@
         <v>27</v>
       </c>
       <c r="C14" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
@@ -1192,7 +1192,7 @@
         <v>29</v>
       </c>
       <c r="C15" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
@@ -1203,7 +1203,7 @@
         <v>31</v>
       </c>
       <c r="C16" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
@@ -1214,7 +1214,7 @@
         <v>33</v>
       </c>
       <c r="C17" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
@@ -1225,7 +1225,7 @@
         <v>35</v>
       </c>
       <c r="C18" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
@@ -1236,7 +1236,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
@@ -1255,43 +1255,43 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
       <c r="C22" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
       <c r="C23" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
       <c r="C24" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -1302,7 +1302,7 @@
         <v>48</v>
       </c>
       <c r="C25" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
@@ -1313,7 +1313,7 @@
         <v>50</v>
       </c>
       <c r="C26" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -1324,7 +1324,7 @@
         <v>52</v>
       </c>
       <c r="C27" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
@@ -1335,7 +1335,7 @@
         <v>54</v>
       </c>
       <c r="C28" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
@@ -1343,54 +1343,54 @@
         <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
       <c r="C30" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
       <c r="C31" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="B32" t="s">
-        <v>62</v>
-      </c>
       <c r="C32" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
         <v>63</v>
       </c>
       <c r="C33" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34">
@@ -1401,7 +1401,7 @@
         <v>65</v>
       </c>
       <c r="C34" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35">
@@ -1412,7 +1412,7 @@
         <v>67</v>
       </c>
       <c r="C35" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36">
@@ -1423,7 +1423,7 @@
         <v>69</v>
       </c>
       <c r="C36" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
@@ -1431,65 +1431,65 @@
         <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
         <v>72</v>
       </c>
-      <c r="B38" t="s">
-        <v>73</v>
-      </c>
       <c r="C38" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
         <v>74</v>
       </c>
-      <c r="B39" t="s">
-        <v>75</v>
-      </c>
       <c r="C39" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" t="s">
         <v>76</v>
       </c>
-      <c r="B40" t="s">
-        <v>77</v>
-      </c>
       <c r="C40" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
         <v>78</v>
       </c>
-      <c r="B41" t="s">
-        <v>79</v>
-      </c>
       <c r="C41" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s">
         <v>80</v>
       </c>
       <c r="C42" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -1497,86 +1497,31 @@
         <v>81</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" t="s">
         <v>83</v>
       </c>
-      <c r="B44" t="s">
-        <v>84</v>
-      </c>
       <c r="C44" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="s">
         <v>85</v>
       </c>
-      <c r="B45" t="s">
-        <v>86</v>
-      </c>
       <c r="C45" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C46" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>89</v>
-      </c>
-      <c r="B47" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>91</v>
-      </c>
-      <c r="B48" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" t="n">
         <v>17</v>
       </c>
     </row>
@@ -1607,10 +1552,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C2" t="n">
         <v>161</v>
@@ -1618,10 +1563,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C3" t="n">
         <v>160</v>
@@ -1629,10 +1574,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C4" t="n">
         <v>143</v>
@@ -1640,10 +1585,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C5" t="n">
         <v>131</v>
@@ -1651,43 +1596,43 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C6" t="n">
-        <v>88</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C7" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C8" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C9" t="n">
         <v>66</v>
@@ -1695,408 +1640,463 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C10" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C11" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C12" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C13" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C14" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C15" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C16" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C17" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C18" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C19" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C20" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C21" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C22" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C23" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C24" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C25" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C26" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="C27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C28" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C29" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B30" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C30" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C31" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C32" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="C33" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="C34" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B35" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C35" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B36" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C36" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B37" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C37" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C38" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C39" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="C40" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="C41" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="C42" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>155</v>
+      </c>
+      <c r="B46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>157</v>
+      </c>
+      <c r="B48" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
         <v>160</v>
       </c>
-      <c r="B46" t="s">
-        <v>117</v>
-      </c>
-      <c r="C46" t="n">
+      <c r="B51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" t="n">
         <v>1</v>
       </c>
     </row>

--- a/DATA_DOWNLOAD/TABLES/Cities_by_Region.xlsx
+++ b/DATA_DOWNLOAD/TABLES/Cities_by_Region.xlsx
@@ -50,6 +50,12 @@
     <t xml:space="preserve">Greater Kansas City</t>
   </si>
   <si>
+    <t xml:space="preserve">Pittsburgh, PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pittsburgh</t>
+  </si>
+  <si>
     <t xml:space="preserve">Milwaukee Co., WI</t>
   </si>
   <si>
@@ -89,6 +95,12 @@
     <t xml:space="preserve">Flint</t>
   </si>
   <si>
+    <t xml:space="preserve">Erie, PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erie</t>
+  </si>
+  <si>
     <t xml:space="preserve">East St. Louis, IL</t>
   </si>
   <si>
@@ -137,6 +149,12 @@
     <t xml:space="preserve">South Bend</t>
   </si>
   <si>
+    <t xml:space="preserve">Johnstown, PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnstown</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pontiac, MI</t>
   </si>
   <si>
@@ -176,6 +194,12 @@
     <t xml:space="preserve">Wichita</t>
   </si>
   <si>
+    <t xml:space="preserve">Altoona, PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altoona</t>
+  </si>
+  <si>
     <t xml:space="preserve">Canton, OH</t>
   </si>
   <si>
@@ -185,6 +209,12 @@
     <t xml:space="preserve">Springfield, OH</t>
   </si>
   <si>
+    <t xml:space="preserve">New Castle, PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Castle</t>
+  </si>
+  <si>
     <t xml:space="preserve">Muncie, IN</t>
   </si>
   <si>
@@ -290,12 +320,6 @@
     <t xml:space="preserve">Union Co., NJ</t>
   </si>
   <si>
-    <t xml:space="preserve">Pittsburgh, PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pittsburgh</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lower Westchester Co., NY</t>
   </si>
   <si>
@@ -332,12 +356,6 @@
     <t xml:space="preserve">Syracuse</t>
   </si>
   <si>
-    <t xml:space="preserve">Erie, PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erie</t>
-  </si>
-  <si>
     <t xml:space="preserve">New Haven, CT</t>
   </si>
   <si>
@@ -371,24 +389,12 @@
     <t xml:space="preserve">Trenton</t>
   </si>
   <si>
-    <t xml:space="preserve">Johnstown, PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnstown</t>
-  </si>
-  <si>
     <t xml:space="preserve">Buffalo, NY</t>
   </si>
   <si>
     <t xml:space="preserve">Buffalo-Niagara Falls</t>
   </si>
   <si>
-    <t xml:space="preserve">Altoona, PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Altoona</t>
-  </si>
-  <si>
     <t xml:space="preserve">Albany, NY</t>
   </si>
   <si>
@@ -420,12 +426,6 @@
   </si>
   <si>
     <t xml:space="preserve">Manchester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Castle, PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Castle</t>
   </si>
   <si>
     <t xml:space="preserve">Haverhill, MA</t>
@@ -1093,7 +1093,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7">
@@ -1104,7 +1104,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>78</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8">
@@ -1115,7 +1115,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -1126,7 +1126,7 @@
         <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -1137,7 +1137,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
@@ -1145,21 +1145,21 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
@@ -1170,7 +1170,7 @@
         <v>25</v>
       </c>
       <c r="C13" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
@@ -1181,7 +1181,7 @@
         <v>27</v>
       </c>
       <c r="C14" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
@@ -1192,7 +1192,7 @@
         <v>29</v>
       </c>
       <c r="C15" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
@@ -1203,7 +1203,7 @@
         <v>31</v>
       </c>
       <c r="C16" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
@@ -1214,7 +1214,7 @@
         <v>33</v>
       </c>
       <c r="C17" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18">
@@ -1225,7 +1225,7 @@
         <v>35</v>
       </c>
       <c r="C18" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19">
@@ -1236,7 +1236,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20">
@@ -1255,43 +1255,43 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="C24" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
@@ -1302,7 +1302,7 @@
         <v>48</v>
       </c>
       <c r="C25" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -1313,7 +1313,7 @@
         <v>50</v>
       </c>
       <c r="C26" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -1324,7 +1324,7 @@
         <v>52</v>
       </c>
       <c r="C27" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -1335,7 +1335,7 @@
         <v>54</v>
       </c>
       <c r="C28" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
@@ -1343,54 +1343,54 @@
         <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C31" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C32" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
         <v>63</v>
       </c>
       <c r="C33" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
@@ -1401,7 +1401,7 @@
         <v>65</v>
       </c>
       <c r="C34" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
@@ -1412,7 +1412,7 @@
         <v>67</v>
       </c>
       <c r="C35" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
@@ -1423,7 +1423,7 @@
         <v>69</v>
       </c>
       <c r="C36" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37">
@@ -1431,65 +1431,65 @@
         <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C37" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C38" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C39" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C40" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C41" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s">
         <v>80</v>
       </c>
       <c r="C42" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43">
@@ -1497,31 +1497,86 @@
         <v>81</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C44" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C45" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" t="n">
         <v>17</v>
       </c>
     </row>
@@ -1552,10 +1607,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C2" t="n">
         <v>161</v>
@@ -1563,10 +1618,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C3" t="n">
         <v>160</v>
@@ -1574,10 +1629,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C4" t="n">
         <v>143</v>
@@ -1585,10 +1640,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C5" t="n">
         <v>131</v>
@@ -1596,43 +1651,43 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C6" t="n">
-        <v>114</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C7" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C8" t="n">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C9" t="n">
         <v>66</v>
@@ -1640,463 +1695,408 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C10" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C12" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C13" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="C14" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C15" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C16" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C17" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="C18" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C19" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C20" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C21" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C22" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C23" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C24" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C25" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C26" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B28" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C28" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C29" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C30" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B31" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C31" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C32" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C33" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B34" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C34" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B35" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C35" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C36" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="C37" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C38" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C39" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B40" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="C40" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B41" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B42" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C43" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C44" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C45" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C46" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>156</v>
-      </c>
-      <c r="B47" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>157</v>
-      </c>
-      <c r="B48" t="s">
-        <v>111</v>
-      </c>
-      <c r="C48" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>158</v>
-      </c>
-      <c r="B49" t="s">
-        <v>111</v>
-      </c>
-      <c r="C49" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>159</v>
-      </c>
-      <c r="B50" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>160</v>
-      </c>
-      <c r="B51" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" t="n">
         <v>1</v>
       </c>
     </row>
